--- a/excels/config/server/equip/server_equip_rarity.xlsx
+++ b/excels/config/server/equip/server_equip_rarity.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="server_equip_rarity" sheetId="5" r:id="rId1"/>
+    <sheet name="server_equip_level_up" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">server_equip_rarity!$A$1:$B$7</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>稀有度</t>
   </si>
@@ -38,10 +39,16 @@
     <t>对应key</t>
   </si>
   <si>
+    <t>装备品质对主属性提升比</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>percentage</t>
   </si>
   <si>
     <t>C</t>
@@ -58,6 +65,18 @@
   <si>
     <t>SS</t>
   </si>
+  <si>
+    <t>占位符</t>
+  </si>
+  <si>
+    <t>装备等级对主属性提升比</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>lvl</t>
+  </si>
 </sst>
 </file>
 
@@ -79,6 +98,19 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -90,19 +122,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -247,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,12 +287,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -459,7 +472,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -468,64 +481,80 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF5A5A5A"/>
-      </left>
-      <right style="thin">
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
         <color rgb="FFFFFFFF"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      </left>
+      <right style="medium">
         <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF5A5A5A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF5A5A5A"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
       </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
@@ -550,6 +579,138 @@
       </top>
       <bottom style="thin">
         <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,7 +836,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,149 +848,197 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -886,7 +1095,93 @@
     <cellStyle name="常规 2" xfId="49"/>
     <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE6E6E6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thick">
+          <color rgb="FF5A5A5A"/>
+        </left>
+        <right style="thick">
+          <color rgb="FF5A5A5A"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5A5A5A"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5A5A5A"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF5A5A5A"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thick">
+          <color rgb="FF595959"/>
+        </left>
+        <right style="thick">
+          <color rgb="FF595959"/>
+        </right>
+        <top style="thick">
+          <color rgb="FF595959"/>
+        </top>
+        <bottom/>
+        <vertical style="medium">
+          <color theme="0"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thick">
+          <color rgb="FF595959"/>
+        </left>
+        <right style="thick">
+          <color rgb="FF595959"/>
+        </right>
+        <top style="thick">
+          <color rgb="FF595959"/>
+        </top>
+        <bottom style="thick">
+          <color rgb="FF595959"/>
+        </bottom>
+        <vertical style="medium">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5EBD810B-55A6-414C-A93D-FAF3074099FE}">
+      <tableStyleElement type="wholeTable" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="00FF6600"/>
@@ -1164,74 +1459,96 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D7" sqref="D7"/>
+      <selection pane="topRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.2" customHeight="1" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.2" customHeight="1" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14.5083333333333" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.0083333333333" style="17" customWidth="1"/>
+    <col min="2" max="2" width="14.3416666666667" style="18" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="15" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:2">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="15" customFormat="1" ht="31.25" customHeight="1" spans="1:3">
+      <c r="A2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" s="16" customFormat="1" ht="30.5" customHeight="1" spans="1:3">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="30.5" customHeight="1" spans="1:3">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" s="16" customFormat="1" ht="30.5" customHeight="1" spans="1:3">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B5" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" s="16" customFormat="1" ht="30.5" customHeight="1" spans="1:3">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:2">
-      <c r="A3" s="9">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
+    <row r="7" s="16" customFormat="1" ht="30.5" customHeight="1" spans="1:3">
+      <c r="A7" s="25">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:2">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:2">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:2">
-      <c r="A6" s="9">
+      <c r="B7" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="27">
         <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:2">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1290,4 +1607,102 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="2" width="13.0083333333333" customWidth="1"/>
+    <col min="3" max="3" width="29.0083333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="31.25" customHeight="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="30.5" customHeight="1" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="30.5" customHeight="1" spans="1:3">
+      <c r="A3" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="30.5" customHeight="1" spans="1:3">
+      <c r="A4" s="4">
+        <v>10</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" ht="30.5" customHeight="1" spans="1:3">
+      <c r="A5" s="7">
+        <v>20</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" ht="30.5" customHeight="1" spans="1:3">
+      <c r="A6" s="4">
+        <v>30</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="7" ht="30.5" customHeight="1" spans="1:3">
+      <c r="A7" s="12">
+        <v>40</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>